--- a/Code/Results/Cases/Case_2_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15085093397451</v>
+        <v>11.97902751906419</v>
       </c>
       <c r="C2">
-        <v>6.362159879805787</v>
+        <v>7.84689065220905</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.783030917663712</v>
+        <v>11.6575429873258</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.111762170957843</v>
+        <v>3.661620903701022</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.22626195001646</v>
+        <v>24.73826245096367</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.47877132460886</v>
+        <v>9.289709712309877</v>
       </c>
       <c r="L2">
-        <v>6.887083994664152</v>
+        <v>9.785653689101096</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.32151002227329</v>
+        <v>24.69388541469624</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2112334758641</v>
+        <v>11.69010833317379</v>
       </c>
       <c r="C3">
-        <v>6.296628425554024</v>
+        <v>7.831060713654015</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.66008622964387</v>
+        <v>11.66887114664601</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.11623992725927</v>
+        <v>3.663272584161525</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.53195782884344</v>
+        <v>24.86574163845381</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83523430835546</v>
+        <v>9.088736309096127</v>
       </c>
       <c r="L3">
-        <v>6.684619714748179</v>
+        <v>9.770893891731893</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.5743161009602</v>
+        <v>24.8182894938889</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.59991633014626</v>
+        <v>11.5104732553419</v>
       </c>
       <c r="C4">
-        <v>6.256582059046481</v>
+        <v>7.82151348027254</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.588454268352075</v>
+        <v>11.67802608937047</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.119073299730842</v>
+        <v>3.664340177004716</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.7298693048273</v>
+        <v>24.94869804238394</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.4197984525614</v>
+        <v>8.963941550707185</v>
       </c>
       <c r="L4">
-        <v>6.560553638079991</v>
+        <v>9.763467871891672</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.74200866155229</v>
+        <v>24.89975329100785</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.34211099531329</v>
+        <v>11.43681080462263</v>
       </c>
       <c r="C5">
-        <v>6.240317582343321</v>
+        <v>7.817667571401005</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.560250899719039</v>
+        <v>11.68231011336775</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.120249509476304</v>
+        <v>3.66478871230901</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.81301786802737</v>
+        <v>24.98368215807549</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.24546253353394</v>
+        <v>8.912801737262779</v>
       </c>
       <c r="L5">
-        <v>6.51012806060071</v>
+        <v>9.760855798463936</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.81335359839258</v>
+        <v>24.93422730841419</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.29877667327671</v>
+        <v>11.42455454675701</v>
       </c>
       <c r="C6">
-        <v>6.237620388639544</v>
+        <v>7.817031696819317</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.555627834568589</v>
+        <v>11.68305489496575</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.120446135195313</v>
+        <v>3.664864006774432</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.82697360589371</v>
+        <v>24.98956246404625</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.21621182448505</v>
+        <v>8.904294782727398</v>
       </c>
       <c r="L6">
-        <v>6.501765036208427</v>
+        <v>9.760447145278507</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.82537860768083</v>
+        <v>24.94002880288541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.5964747107511</v>
+        <v>11.50948153957967</v>
       </c>
       <c r="C7">
-        <v>6.256362479767414</v>
+        <v>7.821461430427373</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.588069889503061</v>
+        <v>11.67808162466822</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.119089074502044</v>
+        <v>3.664346171464011</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.73098064754339</v>
+        <v>24.94916507655609</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.41746761814639</v>
+        <v>8.963252925752087</v>
       </c>
       <c r="L7">
-        <v>6.559872950218707</v>
+        <v>9.763430964733036</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.74295882071824</v>
+        <v>24.90021305013357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.83398247659031</v>
+        <v>11.87993284281078</v>
       </c>
       <c r="C8">
-        <v>6.339529253471361</v>
+        <v>7.841397495175804</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.739850428065435</v>
+        <v>11.66099264793286</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.113288949152016</v>
+        <v>3.662179333413409</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.32950135972574</v>
+        <v>24.78124575340916</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.26112543577026</v>
+        <v>9.220742782898277</v>
       </c>
       <c r="L8">
-        <v>6.817263793998263</v>
+        <v>9.780226461260625</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.40601015675168</v>
+        <v>24.73572554080176</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.98985321388693</v>
+        <v>12.58436646131448</v>
       </c>
       <c r="C9">
-        <v>6.503838051285752</v>
+        <v>7.881802893766348</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.067213475748915</v>
+        <v>11.64491571100881</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.102559511891099</v>
+        <v>3.658352430670344</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.62686114027246</v>
+        <v>24.4890753368638</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.75255677207689</v>
+        <v>9.711830910229246</v>
       </c>
       <c r="L9">
-        <v>7.321100069873256</v>
+        <v>9.826024249291935</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.850465865483</v>
+        <v>24.45348271349408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.41150707413992</v>
+        <v>13.08316922400794</v>
       </c>
       <c r="C10">
-        <v>6.624936378846039</v>
+        <v>7.912211810371559</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.324566063193526</v>
+        <v>11.64370126724387</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.095037174975123</v>
+        <v>3.655795593524227</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.16808223184904</v>
+        <v>24.29698497591296</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.74741111010992</v>
+        <v>10.06069769744589</v>
       </c>
       <c r="L10">
-        <v>7.687218474780113</v>
+        <v>9.867331757390691</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.51608218619031</v>
+        <v>24.27071880041977</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02367158047646</v>
+        <v>13.30501080661604</v>
       </c>
       <c r="C11">
-        <v>6.68004064236242</v>
+        <v>7.926186101053916</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.445009671608018</v>
+        <v>11.64543954558996</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.091685783964775</v>
+        <v>3.654687186836812</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.97340863493898</v>
+        <v>24.214486378848</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.17798790166888</v>
+        <v>10.21614257054552</v>
       </c>
       <c r="L11">
-        <v>7.852266137251599</v>
+        <v>9.887742796947521</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.38238728069105</v>
+        <v>24.19292239626028</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25056804783495</v>
+        <v>13.38821233560211</v>
       </c>
       <c r="C12">
-        <v>6.700904164871376</v>
+        <v>7.931496624782272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.491079064337066</v>
+        <v>11.64642597105013</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.090426185241313</v>
+        <v>3.654275287239361</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.90186234212307</v>
+        <v>24.18394799412464</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.33787659713618</v>
+        <v>10.27448603647609</v>
       </c>
       <c r="L12">
-        <v>7.914504804310769</v>
+        <v>9.895700712985073</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.33463258746163</v>
+        <v>24.1642321380559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20191967334277</v>
+        <v>13.37033035600124</v>
       </c>
       <c r="C13">
-        <v>6.696411059723821</v>
+        <v>7.930352098541609</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.481137125419099</v>
+        <v>11.64619895255333</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.090697050547706</v>
+        <v>3.654363649541509</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.91717180160616</v>
+        <v>24.19049376230147</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.30358222595046</v>
+        <v>10.2619446469296</v>
       </c>
       <c r="L13">
-        <v>7.901112872938542</v>
+        <v>9.893976732522807</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.34478587517115</v>
+        <v>24.17037685395126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04243672963037</v>
+        <v>13.31187239755796</v>
       </c>
       <c r="C14">
-        <v>6.681757192210629</v>
+        <v>7.926622633824312</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.448790748934782</v>
+        <v>11.64551412997751</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.091581969461611</v>
+        <v>3.65465314289886</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.96747797645222</v>
+        <v>24.21195989908897</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.19120537169235</v>
+        <v>10.22095323084301</v>
       </c>
       <c r="L14">
-        <v>7.857392024993421</v>
+        <v>9.888392941348851</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.37839954748955</v>
+        <v>24.19054660184444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.9441100559766</v>
+        <v>13.27595820117432</v>
       </c>
       <c r="C15">
-        <v>6.672780694419068</v>
+        <v>7.924340626792446</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.429036839570282</v>
+        <v>11.64513735494109</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.092125225222098</v>
+        <v>3.654831484523906</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.99857983437884</v>
+        <v>24.22519994646918</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.1219597338846</v>
+        <v>10.19577559167326</v>
       </c>
       <c r="L15">
-        <v>7.830576471133577</v>
+        <v>9.885002360466547</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.39936998362346</v>
+        <v>24.20300140749831</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.37080977119403</v>
+        <v>13.0685627239028</v>
       </c>
       <c r="C16">
-        <v>6.621335018977923</v>
+        <v>7.91130126697637</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.316760504797536</v>
+        <v>11.64363366164764</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.095257561755601</v>
+        <v>3.655869128230443</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.18109967622674</v>
+        <v>24.30247470935302</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.71882932208907</v>
+        <v>10.05046896445214</v>
       </c>
       <c r="L16">
-        <v>7.676397989390551</v>
+        <v>9.866030088905823</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.52520880235818</v>
+        <v>24.27591060358063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.01029501641579</v>
+        <v>12.93997828956824</v>
       </c>
       <c r="C17">
-        <v>6.589774727900691</v>
+        <v>7.903337104095471</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.248728443441705</v>
+        <v>11.64329709549545</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.097196773120257</v>
+        <v>3.656519675168298</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.29676644082638</v>
+        <v>24.35113101164899</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.4658882212469</v>
+        <v>9.96045594177062</v>
       </c>
       <c r="L17">
-        <v>7.581395700816428</v>
+        <v>9.854803196436047</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.60727754105054</v>
+        <v>24.32200748662825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.79968097274218</v>
+        <v>12.86554724006466</v>
       </c>
       <c r="C18">
-        <v>6.571623892343738</v>
+        <v>7.898769704065018</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.209917119198717</v>
+        <v>11.64331921225848</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.098318838375876</v>
+        <v>3.656899004472291</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.36460472778438</v>
+        <v>24.37957657480952</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.31833309122344</v>
+        <v>9.908379194175344</v>
       </c>
       <c r="L18">
-        <v>7.526613906855324</v>
+        <v>9.848498542893477</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.65620030154617</v>
+        <v>24.34902410866674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.72780999558337</v>
+        <v>12.84026741544472</v>
       </c>
       <c r="C19">
-        <v>6.565478820945534</v>
+        <v>7.897225604514169</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.196831818399021</v>
+        <v>11.64336378160654</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.098699917098968</v>
+        <v>3.657028324849285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.38779417235731</v>
+        <v>24.38928672590404</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.26801802996339</v>
+        <v>9.890696393124784</v>
       </c>
       <c r="L19">
-        <v>7.508043343952842</v>
+        <v>9.846390257556825</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.67305343000999</v>
+        <v>24.35825781577075</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.04900898943458</v>
+        <v>12.95371581718333</v>
       </c>
       <c r="C20">
-        <v>6.593134229691194</v>
+        <v>7.904183529511864</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.255937749011929</v>
+        <v>11.64331060759772</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.09698965373424</v>
+        <v>3.656449890404925</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.28431689555443</v>
+        <v>24.34590388576358</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.49302850139047</v>
+        <v>9.970069794506044</v>
       </c>
       <c r="L20">
-        <v>7.59152358981008</v>
+        <v>9.855982538488044</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.59836171203321</v>
+        <v>24.31704833712164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08941375940615</v>
+        <v>13.32906534547668</v>
       </c>
       <c r="C21">
-        <v>6.686061518463246</v>
+        <v>7.9277175710737</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.458279373966338</v>
+        <v>11.64570638309343</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.091321794835913</v>
+        <v>3.654567899476802</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.95264153393085</v>
+        <v>24.20563572323425</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.22429893778752</v>
+        <v>10.23300791475343</v>
       </c>
       <c r="L21">
-        <v>7.870241320942137</v>
+        <v>9.890026864587762</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.36844655060138</v>
+        <v>24.18460136330798</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.74074399893959</v>
+        <v>13.56965427066572</v>
       </c>
       <c r="C22">
-        <v>6.746773683014827</v>
+        <v>7.943207071229799</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.593191774076676</v>
+        <v>11.64918432013021</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.087672567454657</v>
+        <v>3.653383531439967</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.74862230764158</v>
+        <v>24.11805432215263</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.68380459243026</v>
+        <v>10.40179997975187</v>
       </c>
       <c r="L22">
-        <v>8.050859684287753</v>
+        <v>9.913607674887489</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.23504576728039</v>
+        <v>24.10252571292073</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.39571928164577</v>
+        <v>13.44170334364057</v>
       </c>
       <c r="C23">
-        <v>6.714374082491803</v>
+        <v>7.934930602699379</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.520950140983592</v>
+        <v>11.64715357339945</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.089615416051654</v>
+        <v>3.654011488848891</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.85628771590746</v>
+        <v>24.16442383483383</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.44024140084881</v>
+        <v>10.31200802863211</v>
       </c>
       <c r="L23">
-        <v>7.954614569072914</v>
+        <v>9.900901850564946</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.30462225099092</v>
+        <v>24.14592016634591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.03151683847619</v>
+        <v>12.94750665159704</v>
       </c>
       <c r="C24">
-        <v>6.591615418447695</v>
+        <v>7.903800825263224</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.252677481840854</v>
+        <v>11.64330382708202</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.09708326997477</v>
+        <v>3.656481423518385</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.28994117288817</v>
+        <v>24.34826559782223</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.4807650336039</v>
+        <v>9.965724386426622</v>
       </c>
       <c r="L24">
-        <v>7.586945277609049</v>
+        <v>9.85544889090624</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.60238715426307</v>
+        <v>24.31928876477154</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.43534258993045</v>
+        <v>12.39672814024662</v>
       </c>
       <c r="C25">
-        <v>6.459296252095421</v>
+        <v>7.870739592734834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.975598510459372</v>
+        <v>11.64740096071654</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.105396340678483</v>
+        <v>3.65934277670877</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.80732847421774</v>
+        <v>24.56414793077515</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.36673829321104</v>
+        <v>9.580834666130029</v>
       </c>
       <c r="L25">
-        <v>7.185277158656665</v>
+        <v>9.81227538779808</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.98855523818574</v>
+        <v>24.52551870429661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.97902751906419</v>
+        <v>14.15085093397452</v>
       </c>
       <c r="C2">
-        <v>7.84689065220905</v>
+        <v>6.36215987980566</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.6575429873258</v>
+        <v>7.783030917663771</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.661620903701022</v>
+        <v>2.111762170957843</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.73826245096367</v>
+        <v>15.22626195001635</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.289709712309877</v>
+        <v>11.47877132460887</v>
       </c>
       <c r="L2">
-        <v>9.785653689101096</v>
+        <v>6.887083994664239</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.69388541469624</v>
+        <v>15.32151002227322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69010833317379</v>
+        <v>13.21123347586409</v>
       </c>
       <c r="C3">
-        <v>7.831060713654015</v>
+        <v>6.296628425554142</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.66887114664601</v>
+        <v>7.660086229643969</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.663272584161525</v>
+        <v>2.116239927259405</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.86574163845381</v>
+        <v>15.53195782884354</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.088736309096127</v>
+        <v>10.83523430835544</v>
       </c>
       <c r="L3">
-        <v>9.770893891731893</v>
+        <v>6.684619714748198</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.8182894938889</v>
+        <v>15.57431610096024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5104732553419</v>
+        <v>12.59991633014628</v>
       </c>
       <c r="C4">
-        <v>7.82151348027254</v>
+        <v>6.256582059046859</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.67802608937047</v>
+        <v>7.588454268352129</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.664340177004716</v>
+        <v>2.119073299730976</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.94869804238394</v>
+        <v>15.7298693048272</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.963941550707185</v>
+        <v>10.41979845256144</v>
       </c>
       <c r="L4">
-        <v>9.763467871891672</v>
+        <v>6.560553638079989</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.89975329100785</v>
+        <v>15.74200866155213</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43681080462263</v>
+        <v>12.34211099531333</v>
       </c>
       <c r="C5">
-        <v>7.817667571401005</v>
+        <v>6.240317582343315</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.68231011336775</v>
+        <v>7.560250899719047</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.66478871230901</v>
+        <v>2.120249509476572</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.98368215807549</v>
+        <v>15.81301786802721</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.912801737262779</v>
+        <v>10.24546253353397</v>
       </c>
       <c r="L5">
-        <v>9.760855798463936</v>
+        <v>6.510128060600681</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.93422730841419</v>
+        <v>15.81335359839243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42455454675701</v>
+        <v>12.29877667327663</v>
       </c>
       <c r="C6">
-        <v>7.817031696819317</v>
+        <v>6.23762038863955</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.68305489496575</v>
+        <v>7.555627834568583</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.664864006774432</v>
+        <v>2.120446135195044</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.98956246404625</v>
+        <v>15.82697360589396</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.904294782727398</v>
+        <v>10.21621182448497</v>
       </c>
       <c r="L6">
-        <v>9.760447145278507</v>
+        <v>6.501765036208421</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.94002880288541</v>
+        <v>15.82537860768108</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50948153957967</v>
+        <v>12.59647471075114</v>
       </c>
       <c r="C7">
-        <v>7.821461430427373</v>
+        <v>6.256362479767399</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.67808162466822</v>
+        <v>7.588069889503123</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.664346171464011</v>
+        <v>2.11908907450191</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.94916507655609</v>
+        <v>15.73098064754322</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.963252925752087</v>
+        <v>10.41746761814643</v>
       </c>
       <c r="L7">
-        <v>9.763430964733036</v>
+        <v>6.559872950218751</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.90021305013357</v>
+        <v>15.74295882071807</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87993284281078</v>
+        <v>13.83398247659032</v>
       </c>
       <c r="C8">
-        <v>7.841397495175804</v>
+        <v>6.339529253471341</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.66099264793286</v>
+        <v>7.739850428065452</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.662179333413409</v>
+        <v>2.113288949151748</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.78124575340916</v>
+        <v>15.32950135972579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.220742782898277</v>
+        <v>11.26112543577023</v>
       </c>
       <c r="L8">
-        <v>9.780226461260625</v>
+        <v>6.817263793998308</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.73572554080176</v>
+        <v>15.40601015675176</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.58436646131448</v>
+        <v>15.98985321388694</v>
       </c>
       <c r="C9">
-        <v>7.881802893766348</v>
+        <v>6.503838051285726</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.64491571100881</v>
+        <v>8.067213475748938</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.658352430670344</v>
+        <v>2.102559511891234</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.4890753368638</v>
+        <v>14.62686114027244</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.711830910229246</v>
+        <v>12.75255677207688</v>
       </c>
       <c r="L9">
-        <v>9.826024249291935</v>
+        <v>7.321100069873274</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.45348271349408</v>
+        <v>14.85046586548298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.08316922400794</v>
+        <v>17.41150707413998</v>
       </c>
       <c r="C10">
-        <v>7.912211810371559</v>
+        <v>6.624936378845765</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.64370126724387</v>
+        <v>8.324566063193489</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.655795593524227</v>
+        <v>2.095037174975525</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.29698497591296</v>
+        <v>14.16808223184897</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.06069769744589</v>
+        <v>13.74741111010995</v>
       </c>
       <c r="L10">
-        <v>9.867331757390691</v>
+        <v>7.687218474780146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.27071880041977</v>
+        <v>14.51608218619026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.30501080661604</v>
+        <v>18.02367158047643</v>
       </c>
       <c r="C11">
-        <v>7.926186101053916</v>
+        <v>6.68004064236242</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.64543954558996</v>
+        <v>8.445009671607943</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.654687186836812</v>
+        <v>2.091685783964774</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.214486378848</v>
+        <v>13.97340863493907</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.21614257054552</v>
+        <v>14.17798790166886</v>
       </c>
       <c r="L11">
-        <v>9.887742796947521</v>
+        <v>7.852266137251579</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.19292239626028</v>
+        <v>14.38238728069114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.38821233560211</v>
+        <v>18.25056804783499</v>
       </c>
       <c r="C12">
-        <v>7.931496624782272</v>
+        <v>6.700904164871488</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.64642597105013</v>
+        <v>8.491079064337081</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.654275287239361</v>
+        <v>2.090426185241714</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.18394799412464</v>
+        <v>13.90186234212298</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.27448603647609</v>
+        <v>14.33787659713624</v>
       </c>
       <c r="L12">
-        <v>9.895700712985073</v>
+        <v>7.914504804310763</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.1642321380559</v>
+        <v>14.33463258746149</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.37033035600124</v>
+        <v>18.20191967334279</v>
       </c>
       <c r="C13">
-        <v>7.930352098541609</v>
+        <v>6.696411059723689</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.64619895255333</v>
+        <v>8.48113712541913</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.654363649541509</v>
+        <v>2.090697050547706</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.19049376230147</v>
+        <v>13.91717180160609</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.2619446469296</v>
+        <v>14.30358222595047</v>
       </c>
       <c r="L13">
-        <v>9.893976732522807</v>
+        <v>7.901112872938584</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.17037685395126</v>
+        <v>14.34478587517116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.31187239755796</v>
+        <v>18.04243672963035</v>
       </c>
       <c r="C14">
-        <v>7.926622633824312</v>
+        <v>6.681757192210743</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.64551412997751</v>
+        <v>8.448790748934801</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.65465314289886</v>
+        <v>2.091581969461478</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.21195989908897</v>
+        <v>13.96747797645217</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.22095323084301</v>
+        <v>14.19120537169232</v>
       </c>
       <c r="L14">
-        <v>9.888392941348851</v>
+        <v>7.857392024993369</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.19054660184444</v>
+        <v>14.37839954748947</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.27595820117432</v>
+        <v>17.94411005597662</v>
       </c>
       <c r="C15">
-        <v>7.924340626792446</v>
+        <v>6.672780694419044</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.64513735494109</v>
+        <v>8.429036839570326</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.654831484523906</v>
+        <v>2.092125225222232</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.22519994646918</v>
+        <v>13.99857983437886</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.19577559167326</v>
+        <v>14.1219597338846</v>
       </c>
       <c r="L15">
-        <v>9.885002360466547</v>
+        <v>7.830576471133603</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.20300140749831</v>
+        <v>14.39936998362348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.0685627239028</v>
+        <v>17.37080977119411</v>
       </c>
       <c r="C16">
-        <v>7.91130126697637</v>
+        <v>6.621335018977905</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.64363366164764</v>
+        <v>8.31676050479758</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.655869128230443</v>
+        <v>2.095257561755199</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.30247470935302</v>
+        <v>14.18109967622659</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.05046896445214</v>
+        <v>13.71882932208915</v>
       </c>
       <c r="L16">
-        <v>9.866030088905823</v>
+        <v>7.676397989390564</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.27591060358063</v>
+        <v>14.52520880235807</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.93997828956824</v>
+        <v>17.01029501641578</v>
       </c>
       <c r="C17">
-        <v>7.903337104095471</v>
+        <v>6.589774727900806</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.64329709549545</v>
+        <v>8.248728443441726</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.656519675168298</v>
+        <v>2.09719677312039</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.35113101164899</v>
+        <v>14.29676644082644</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.96045594177062</v>
+        <v>13.4658882212469</v>
       </c>
       <c r="L17">
-        <v>9.854803196436047</v>
+        <v>7.581395700816415</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.32200748662825</v>
+        <v>14.60727754105057</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.86554724006466</v>
+        <v>16.79968097274215</v>
       </c>
       <c r="C18">
-        <v>7.898769704065018</v>
+        <v>6.571623892343971</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.64331921225848</v>
+        <v>8.209917119198721</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.656899004472291</v>
+        <v>2.098318838376009</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.37957657480952</v>
+        <v>14.36460472778446</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.908379194175344</v>
+        <v>13.31833309122347</v>
       </c>
       <c r="L18">
-        <v>9.848498542893477</v>
+        <v>7.526613906855276</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.34902410866674</v>
+        <v>14.65620030154621</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.84026741544472</v>
+        <v>16.72780999558341</v>
       </c>
       <c r="C19">
-        <v>7.897225604514169</v>
+        <v>6.565478820945541</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.64336378160654</v>
+        <v>8.196831818399025</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.657028324849285</v>
+        <v>2.09869991709897</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.38928672590404</v>
+        <v>14.38779417235731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.890696393124784</v>
+        <v>13.26801802996344</v>
       </c>
       <c r="L19">
-        <v>9.846390257556825</v>
+        <v>7.508043343952846</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.35825781577075</v>
+        <v>14.67305343001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.95371581718333</v>
+        <v>17.04900898943457</v>
       </c>
       <c r="C20">
-        <v>7.904183529511864</v>
+        <v>6.593134229691177</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.64331060759772</v>
+        <v>8.255937749012004</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.656449890404925</v>
+        <v>2.096989653734374</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.34590388576358</v>
+        <v>14.28431689555452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.970069794506044</v>
+        <v>13.49302850139043</v>
       </c>
       <c r="L20">
-        <v>9.855982538488044</v>
+        <v>7.591523589810126</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.31704833712164</v>
+        <v>14.5983617120333</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.32906534547668</v>
+        <v>18.08941375940611</v>
       </c>
       <c r="C21">
-        <v>7.9277175710737</v>
+        <v>6.686061518463246</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.64570638309343</v>
+        <v>8.458279373966395</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.654567899476802</v>
+        <v>2.091321794835511</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.20563572323425</v>
+        <v>13.95264153393099</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.23300791475343</v>
+        <v>14.2242989377875</v>
       </c>
       <c r="L21">
-        <v>9.890026864587762</v>
+        <v>7.870241320942112</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.18460136330798</v>
+        <v>14.36844655060143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.56965427066572</v>
+        <v>18.74074399893965</v>
       </c>
       <c r="C22">
-        <v>7.943207071229799</v>
+        <v>6.746773683014713</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.64918432013021</v>
+        <v>8.593191774076638</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.653383531439967</v>
+        <v>2.087672567454924</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.11805432215263</v>
+        <v>13.74862230764112</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.40179997975187</v>
+        <v>14.68380459243034</v>
       </c>
       <c r="L22">
-        <v>9.913607674887489</v>
+        <v>8.050859684287751</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.10252571292073</v>
+        <v>14.23504576727999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.44170334364057</v>
+        <v>18.39571928164586</v>
       </c>
       <c r="C23">
-        <v>7.934930602699379</v>
+        <v>6.714374082491539</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.64715357339945</v>
+        <v>8.520950140983595</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.654011488848891</v>
+        <v>2.089615416051655</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.16442383483383</v>
+        <v>13.85628771590745</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.31200802863211</v>
+        <v>14.44024140084882</v>
       </c>
       <c r="L23">
-        <v>9.900901850564946</v>
+        <v>7.954614569072942</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.14592016634591</v>
+        <v>14.30462225099096</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.94750665159704</v>
+        <v>17.03151683847624</v>
       </c>
       <c r="C24">
-        <v>7.903800825263224</v>
+        <v>6.591615418447821</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.64330382708202</v>
+        <v>8.252677481840829</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.656481423518385</v>
+        <v>2.097083269974769</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.34826559782223</v>
+        <v>14.28994117288799</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.965724386426622</v>
+        <v>13.48076503360392</v>
       </c>
       <c r="L24">
-        <v>9.85544889090624</v>
+        <v>7.586945277609028</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.31928876477154</v>
+        <v>14.60238715426287</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.39672814024662</v>
+        <v>15.43534258993045</v>
       </c>
       <c r="C25">
-        <v>7.870739592734834</v>
+        <v>6.459296252095548</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.64740096071654</v>
+        <v>7.975598510459337</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.65934277670877</v>
+        <v>2.105396340678483</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.56414793077515</v>
+        <v>14.80732847421763</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.580834666130029</v>
+        <v>12.36673829321109</v>
       </c>
       <c r="L25">
-        <v>9.81227538779808</v>
+        <v>7.18527715865662</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.52551870429661</v>
+        <v>14.98855523818555</v>
       </c>
     </row>
   </sheetData>
